--- a/excel/Subject.xlsx
+++ b/excel/Subject.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="221" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="222" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Subject Id</t>
   </si>
@@ -38,7 +38,7 @@
     <t>10cs42</t>
   </si>
   <si>
-    <t>flat</t>
+    <t>FLAT</t>
   </si>
   <si>
     <t>BE</t>
@@ -47,43 +47,28 @@
     <t>CSE</t>
   </si>
   <si>
-    <t>10ec45</t>
-  </si>
-  <si>
-    <t>os</t>
-  </si>
-  <si>
-    <t>10me56</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>ISE</t>
-  </si>
-  <si>
-    <t>12cs42</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>MTECH</t>
-  </si>
-  <si>
-    <t>MECH</t>
-  </si>
-  <si>
-    <t>12cs03</t>
-  </si>
-  <si>
-    <t>oop</t>
-  </si>
-  <si>
-    <t>BTECH</t>
+    <t>10cs48</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>10cs49</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>10cs50</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>10cs51</t>
+  </si>
+  <si>
+    <t>OOP</t>
   </si>
 </sst>
 </file>
@@ -184,7 +169,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -226,7 +211,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
@@ -246,7 +231,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
@@ -266,13 +251,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,19 +265,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,19 +285,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
